--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89626.56563536981</v>
+        <v>85099.23813621269</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16755.95379137131</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="C6" t="n">
-        <v>-16755.95379137131</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="D6" t="n">
-        <v>-16755.95379137131</v>
+        <v>-17501.48917028302</v>
       </c>
       <c r="E6" t="n">
-        <v>-91285.61231213363</v>
+        <v>-91727.42040208365</v>
       </c>
       <c r="F6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="G6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="H6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="I6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="J6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="K6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="L6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="M6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="N6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="O6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
       <c r="P6" t="n">
-        <v>41814.38768786642</v>
+        <v>41372.57959791634</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85099.23813621269</v>
+        <v>98825.59627363092</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-17501.48917028302</v>
       </c>
       <c r="E6" t="n">
-        <v>-91727.42040208365</v>
+        <v>-91727.42040208371</v>
       </c>
       <c r="F6" t="n">
         <v>41372.57959791634</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98825.59627363092</v>
+        <v>-26284.30252384573</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490451</v>
       </c>
       <c r="F2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="G2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="H2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="I2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="J2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="K2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="L2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="M2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="N2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="O2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="P2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-32652.16314031779</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-32652.16314031779</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028302</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="E6" t="n">
-        <v>-91727.42040208371</v>
+        <v>-106537.4372411976</v>
       </c>
       <c r="F6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="G6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="H6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="I6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="J6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="K6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="L6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="M6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="N6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="O6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
       <c r="P6" t="n">
-        <v>41372.57959791634</v>
+        <v>26562.56275880245</v>
       </c>
     </row>
   </sheetData>
